--- a/biology/Zoologie/Ceratinia_iolaia/Ceratinia_iolaia.xlsx
+++ b/biology/Zoologie/Ceratinia_iolaia/Ceratinia_iolaia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratinia iolaia est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Ceratinia.
 </t>
@@ -511,14 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ceratinia iolaia a été décrit par William Chapman Hewitson en 1856.
-Synonyme : Ithomia cayana Salvin, 1869[1].
-Sous-espèces
-Ceratinia iolaia iolaia ; présent en Colombie
-Ceratinia iolaia coneniens Bryk, 1937; présent en Colombie
-Ceratinia iolaia rehni Fox, 1941; présent en Colombie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratinia iolaia a été décrit par William Chapman Hewitson en 1856.
+Synonyme : Ithomia cayana Salvin, 1869.
+</t>
         </is>
       </c>
     </row>
@@ -543,14 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceratinia iolaia est un papillon aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures. Les ailes antérieures ont une partie basale jaune orangé et le reste de l'aile marron taché de blanc. Les ailes postérieures sont jaune orangé avec une bordure marron.
-Le revers est semblable.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ceratinia iolaia iolaia ; présent en Colombie
+Ceratinia iolaia coneniens Bryk, 1937; présent en Colombie
+Ceratinia iolaia rehni Fox, 1941; présent en Colombie.</t>
         </is>
       </c>
     </row>
@@ -575,12 +592,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratinia iolaia est un papillon aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures. Les ailes antérieures ont une partie basale jaune orangé et le reste de l'aile marron taché de blanc. Les ailes postérieures sont jaune orangé avec une bordure marron.
+Le revers est semblable.
+</t>
         </is>
       </c>
     </row>
@@ -608,13 +629,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratinia iolaia est présent en Colombie[1].
-Biotope
-Il réside en sous-bois.
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratinia iolaia est présent en Colombie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ceratinia_iolaia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratinia_iolaia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en sous-bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ceratinia_iolaia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratinia_iolaia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Ceratinia iolaia, sur Wikimedia CommonsCeratinia iolaia, sur Wikispecies
 </t>
